--- a/evaluation/evaluation-results/hybrid-results/final-scores-sorted.xlsx
+++ b/evaluation/evaluation-results/hybrid-results/final-scores-sorted.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\final-year-project\voice-recognition-rpg\evaluation\evaluation-results\hybrid-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019DE501-AF91-49A5-B198-049F55B51910}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656A329A-DF08-4952-97B7-E1818C74DCA5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="final-results2" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="final-results2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,112 +23,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>resultsFASTLESK_LCH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLESK_LCH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_LCH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLCH_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_JCN.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_LCH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_LESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_LIN.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLCH_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_FASTLESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLCH_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLESK_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsFASTLESK_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsWUP_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_LCH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsPATH_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsFASTLESK_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_LESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLESK_FASTLESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLESK_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsFASTLESK_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_FASTLESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLESK_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_FASTLESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_LESK.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsPATH_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsRES_COS.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_RES.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_JCN.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsLIN_PATH.csv:"Score:"</t>
-  </si>
-  <si>
-    <t>resultsJCN_RES.csv:"Score:"</t>
+    <t>FASTLESK_LCH</t>
+  </si>
+  <si>
+    <t>LESK_LCH</t>
+  </si>
+  <si>
+    <t>WUP_COS</t>
+  </si>
+  <si>
+    <t>JCN_LCH</t>
+  </si>
+  <si>
+    <t>LCH_PATH</t>
+  </si>
+  <si>
+    <t>WUP_JCN</t>
+  </si>
+  <si>
+    <t>WUP_LCH</t>
+  </si>
+  <si>
+    <t>WUP_LESK</t>
+  </si>
+  <si>
+    <t>WUP_LIN</t>
+  </si>
+  <si>
+    <t>LCH_COS</t>
+  </si>
+  <si>
+    <t>WUP_FASTLESK</t>
+  </si>
+  <si>
+    <t>WUP_PATH</t>
+  </si>
+  <si>
+    <t>LCH_RES</t>
+  </si>
+  <si>
+    <t>LESK_PATH</t>
+  </si>
+  <si>
+    <t>FASTLESK_PATH</t>
+  </si>
+  <si>
+    <t>WUP_RES</t>
+  </si>
+  <si>
+    <t>LIN_LCH</t>
+  </si>
+  <si>
+    <t>PATH_COS</t>
+  </si>
+  <si>
+    <t>JCN_COS</t>
+  </si>
+  <si>
+    <t>LIN_COS</t>
+  </si>
+  <si>
+    <t>FASTLESK_RES</t>
+  </si>
+  <si>
+    <t>JCN_LESK</t>
+  </si>
+  <si>
+    <t>LESK_FASTLESK</t>
+  </si>
+  <si>
+    <t>LESK_RES</t>
+  </si>
+  <si>
+    <t>FASTLESK_COS</t>
+  </si>
+  <si>
+    <t>JCN_FASTLESK</t>
+  </si>
+  <si>
+    <t>LESK_COS</t>
+  </si>
+  <si>
+    <t>LIN_FASTLESK</t>
+  </si>
+  <si>
+    <t>LIN_LESK</t>
+  </si>
+  <si>
+    <t>PATH_RES</t>
+  </si>
+  <si>
+    <t>RES_COS</t>
+  </si>
+  <si>
+    <t>LIN_RES</t>
+  </si>
+  <si>
+    <t>JCN_PATH</t>
+  </si>
+  <si>
+    <t>LIN_JCN</t>
+  </si>
+  <si>
+    <t>LIN_PATH</t>
+  </si>
+  <si>
+    <t>JCN_RES</t>
   </si>
 </sst>
 </file>
@@ -670,6 +671,1112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'final-results2'!$A$1:$A$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('final-results2'!$A$1:$A$3,'final-results2'!$A$5,'final-results2'!$A$7:$A$18,'final-results2'!$A$20:$A$21,'final-results2'!$A$23:$A$25,'final-results2'!$A$27:$A$32,'final-results2'!$A$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>FASTLESK_LCH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LESK_LCH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WUP_COS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LCH_PATH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WUP_LCH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WUP_LESK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WUP_LIN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LCH_COS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WUP_FASTLESK</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WUP_PATH</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>LCH_RES</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LESK_PATH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FASTLESK_PATH</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>WUP_RES</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LIN_LCH</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PATH_COS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LIN_COS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>FASTLESK_RES</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LESK_FASTLESK</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LESK_RES</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>FASTLESK_COS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LESK_COS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LIN_FASTLESK</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LIN_LESK</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>PATH_RES</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RES_COS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>LIN_RES</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>LIN_PATH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'final-results2'!$B$1:$B$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('final-results2'!$B$1:$B$3,'final-results2'!$B$5,'final-results2'!$B$7:$B$18,'final-results2'!$B$20:$B$21,'final-results2'!$B$23:$B$25,'final-results2'!$B$27:$B$32,'final-results2'!$B$35)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.43369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42170000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD86-4626-9766-349D5CC713BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="453209960"/>
+        <c:axId val="453202416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="453209960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Hybrid Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453202416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453202416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75000000000000011"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Percentage of Tests that Pass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453209960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{02131D2C-33CE-489E-BCB4-8BBD4FCFD1AA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71AD637-F17C-4969-A6EA-9626947F7A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,7 +2078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
